--- a/document/Login.xlsx
+++ b/document/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Year3_Semester2\E-Commerce\Phân tích thiết kế\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4A562-9A50-43C9-893C-6D39F1F80A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5AD277-82CB-4F8E-A30E-BA89F588B935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CEDE4694-DC51-4D85-ADCC-94E0EF472F12}"/>
+    <workbookView xWindow="13116" yWindow="216" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{CEDE4694-DC51-4D85-ADCC-94E0EF472F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Outline" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"> Program Outline</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Nếu Username hoặc Password không được nhập thì báo lỗi rồi ngưng xử lý</t>
   </si>
   <si>
-    <t>2.1. Xử lý click button Login</t>
-  </si>
-  <si>
     <t>2. Xử lý chính</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>Get Username và Password đã nhập tương ứng với dữ liệu trong database.</t>
+  </si>
+  <si>
+    <t>2.1. Xử lý Click button Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Xử lý Click button Tạo tài khoản </t>
+  </si>
+  <si>
+    <t>Xử lý chuyển qua trang Tạo tài khoản</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A379C9-C937-4045-B884-518D9F5F8D7E}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1108,7 @@
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1453,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE3B27-7E74-43DE-9E7A-82E6F7816E75}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1478,15 +1484,15 @@
       <c r="D1" s="60"/>
       <c r="E1" s="61"/>
       <c r="F1" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="66"/>
       <c r="H1" s="67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="68"/>
       <c r="J1" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="69"/>
       <c r="L1" s="70"/>
@@ -1499,11 +1505,11 @@
       <c r="D2" s="63"/>
       <c r="E2" s="64"/>
       <c r="F2" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="54"/>
       <c r="J2" s="40"/>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -1529,14 +1535,14 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
       <c r="L4" s="54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -1553,7 +1559,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -1570,7 +1576,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1604,7 +1610,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -1657,7 +1663,7 @@
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -1739,7 +1745,9 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
@@ -1755,7 +1763,9 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="C18" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -1868,5 +1878,6 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>